--- a/Tour/target/classes/com/tour/qa/testdata/Tour_Payement.xlsx
+++ b/Tour/target/classes/com/tour/qa/testdata/Tour_Payement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1050330\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1047224\Desktop\EDU\Selenium-Edureka-Project\Tour\target\classes\com\tour\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Payement" sheetId="1" r:id="rId1"/>
@@ -62,25 +62,25 @@
     <t>Country</t>
   </si>
   <si>
-    <t>ruby</t>
-  </si>
-  <si>
-    <t>sharma</t>
-  </si>
-  <si>
     <t>visa</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>uk</t>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Jai</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,22 +453,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>98974765983</v>
+        <v>123456789</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>90478</v>
+        <v>342534</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
